--- a/database/MerchantAdminTestCase.xlsx
+++ b/database/MerchantAdminTestCase.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="测试环境" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$14</definedName>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="67">
   <si>
     <t>module</t>
   </si>
@@ -76,6 +76,57 @@
   </si>
   <si>
     <t>SELECT
+ a.id,
+ a.merchant_id,
+ a.shop_id,
+ a.account,
+ a.avatar,
+ a.login_ip,
+ a.login_time,
+ a.password,
+ a.name,
+ a.phone,
+ b.name AS role_name,
+ c.sign_url,
+ a.status,
+ a.created_at,
+ a.updated_at
+FROM
+ mf_merchant_admin a
+ LEFT JOIN (
+   SELECT
+  aa.admin_id AS admin_id,
+  GROUP_CONCAT( ab.NAME ORDER BY ab.id desc) AS NAME 
+ FROM
+  mf_merchant_admin_role_relation aa
+  LEFT JOIN mf_merchant_role ab ON aa.role_id = ab.id 
+ GROUP BY
+  aa.admin_id 
+ ) b ON a.id = b.admin_id
+ LEFT JOIN mf_merchant_pharmacist c ON a.id = c.admin_id 
+WHERE
+ 1 = 1 
+ AND a.merchant_id = %(merchant_id)s
+ ORDER BY
+ a.created_at DESC</t>
+  </si>
+  <si>
+    <t>{"search":"","status":"","page":1,"limit":10}</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>query_002</t>
+  </si>
+  <si>
+    <t>查询状态为【正常】的数据</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT
  a.id,
  a.merchant_id,
  a.shop_id,
@@ -96,34 +147,29 @@
  LEFT JOIN (
  SELECT
   aa.admin_id AS admin_id,
-  GROUP_CONCAT( ab.NAME SEPARATOR "," ) AS NAME 
+  GROUP_CONCAT( ab.NAME ORDER BY ab.id desc  ) AS NAME 
  FROM
   mf_merchant_admin_role_relation aa
   LEFT JOIN mf_merchant_role ab ON aa.role_id = ab.id 
  GROUP BY
   aa.admin_id 
  ) b ON a.id = b.admin_id
- LEFT JOIN mf_merchant_pharmacist c ON a.id = c.admin_id 
+ LEFT JOIN mf_merchant_pharmacist c ON a.id = c.admin_id
 WHERE
  1 = 1 
  AND a.merchant_id = %(merchant_id)s
+ AND a.status=%(status)s
  ORDER BY
- a.created_at DESC</t>
-  </si>
-  <si>
-    <t>{"search":"","status":"","page":1,"limit":10}</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>query_002</t>
-  </si>
-  <si>
-    <t>查询状态为【正常】的数据</t>
+ a.created_at DESC </t>
+  </si>
+  <si>
+    <t>{"search":"","status":1,"page":1,"limit":10}</t>
+  </si>
+  <si>
+    <t>query_003</t>
+  </si>
+  <si>
+    <t>查询状态为【禁用】的数据</t>
   </si>
   <si>
     <t>SELECT
@@ -163,22 +209,13 @@
  a.created_at DESC</t>
   </si>
   <si>
-    <t>{"search":"","status":1,"page":1,"limit":10}</t>
-  </si>
-  <si>
-    <t>query_003</t>
-  </si>
-  <si>
-    <t>查询状态为【禁用】的数据</t>
-  </si>
-  <si>
     <t>{"search":"","status":2,"page":1,"limit":10}</t>
   </si>
   <si>
     <t>query_004</t>
   </si>
   <si>
-    <t>查询手机号为【18856009142】的数据</t>
+    <t>查询手机号为【13956302654】的数据</t>
   </si>
   <si>
     <t>SELECT
@@ -218,13 +255,59 @@
  a.created_at DESC</t>
   </si>
   <si>
-    <t>{"search":"18856009142","page":1,"limit":10}</t>
+    <t>{"search":"13956302654","page":1,"limit":10}</t>
   </si>
   <si>
     <t>query_005</t>
   </si>
   <si>
     <t>模糊查询手机号为【13】开头的数据</t>
+  </si>
+  <si>
+    <t>SELECT
+ a.id,
+ a.merchant_id,
+ a.shop_id,
+ a.account,
+ a.avatar,
+ a.login_ip,
+ a.login_time,
+ a.password,
+ a.name,
+ a.phone,
+ b.name AS role_name,
+ c.sign_url,
+ a.status,
+ a.created_at,
+ a.updated_at
+FROM
+ mf_merchant_admin a
+ LEFT JOIN (
+ SELECT
+  aa.admin_id AS admin_id,
+  GROUP_CONCAT( ab.NAME ORDER BY ab.id desc) AS NAME 
+ FROM
+  mf_merchant_admin_role_relation aa
+  LEFT JOIN mf_merchant_role ab ON aa.role_id = ab.id 
+ GROUP BY
+  aa.admin_id 
+ ) b ON a.id = b.admin_id
+ LEFT JOIN mf_merchant_pharmacist c ON a.id = c.admin_id 
+WHERE
+ 1 = 1 
+ AND a.merchant_id = %(merchant_id)s
+ AND (a.name like %(search)s  or a.phone like %(search)s)
+ ORDER BY
+ a.created_at DESC</t>
+  </si>
+  <si>
+    <t>{"search":"13","page":1,"limit":10}</t>
+  </si>
+  <si>
+    <t>query_006</t>
+  </si>
+  <si>
+    <t>查询不存在的手机号【13876582762】的数据</t>
   </si>
   <si>
     <t>SELECT
@@ -264,49 +347,40 @@
  a.created_at DESC</t>
   </si>
   <si>
-    <t>{"search":"13","page":1,"limit":10}</t>
-  </si>
-  <si>
-    <t>query_006</t>
-  </si>
-  <si>
-    <t>查询不存在的手机号【13876582762】的数据</t>
-  </si>
-  <si>
     <t>{"search":"13876582762","page":1,"limit":10}</t>
   </si>
   <si>
     <t>query_007</t>
   </si>
   <si>
-    <t>查询存在的账号【安徽德胜大药房】</t>
-  </si>
-  <si>
-    <t>{"search":"安徽德胜大药房","page":1,"limit":10}</t>
+    <t>查询存在的账号【XXX药房】</t>
+  </si>
+  <si>
+    <t>{"search":"xxxx药房","page":1,"limit":10}</t>
   </si>
   <si>
     <t>query_008</t>
   </si>
   <si>
-    <t>查询不存在的账号【安徽德胜大药房33】</t>
-  </si>
-  <si>
-    <t>{"search":"安徽德胜大药房33","page":1,"limit":10}</t>
+    <t>查询不存在的账号【XXXX药房33】</t>
+  </si>
+  <si>
+    <t>{"search":"xxx药房33","page":1,"limit":10}</t>
   </si>
   <si>
     <t>query_009</t>
   </si>
   <si>
-    <t>模糊查询账号【安徽】的数据</t>
-  </si>
-  <si>
-    <t>{"search":"安徽","page":1,"limit":10}</t>
+    <t>模糊查询账号【vvvv】的数据</t>
+  </si>
+  <si>
+    <t>{"search":"xxx","page":1,"limit":10}</t>
   </si>
   <si>
     <t>query_010</t>
   </si>
   <si>
-    <t>联合查询【正常】【安徽德胜大药房】</t>
+    <t>联合查询【正常】【xxxx药房】</t>
   </si>
   <si>
     <t>SELECT
@@ -347,7 +421,10 @@
  a.created_at DESC</t>
   </si>
   <si>
-    <t>{"search":"安徽德胜大药房","status":1,"page":1,"limit":10}</t>
+    <t>{"search":"xxx药房","status":1,"page":1,"limit":10}</t>
+  </si>
+  <si>
+    <t>{"id":1357,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"周宇","card_no":"34240119881231991X","phone":"15835547888","diag_id":"21553344682942","prescription_url":"upload\/mf-backend-project\/prescription\/2021-09-01\/95a94b1f9daa014daa04ef3413ae5c3d.png","status":4,"remark":"","created_at":"1630463783","user_drug":{"id":378,"order_id":1357,"name":"周宇","card_no":"34240119881231991X","phone":"15835547888","birthday":"1988-12-31","sex":1,"age":33,"address":"hsajijwhhyjjm","is_diagnosis":0,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1630463783"},"disease":[{"order_id":1357,"disease_id":"97648","disease_name":"中耳炎"}]},{"id":1355,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","diag_id":"21545315652261","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629776345","user_drug":{"id":376,"order_id":1355,"name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","birthday":"1980-10-21","sex":1,"age":41,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629776345"},"disease":[{"order_id":1355,"disease_id":"12565","disease_name":"骨质增生"}]},{"id":1354,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"郑现桃","card_no":"342423199205120020","phone":"13723451234","diag_id":"21545315664659","prescription_url":"upload\/mf-backend-project\/prescription\/2021-08-24\/806e2ff931b4ebe2320d5b81d983addf.png","status":5,"remark":"","created_at":"1629775691","user_drug":{"id":375,"order_id":1354,"name":"郑现桃","card_no":"342423199205120020","phone":"13723451234","birthday":"1992-05-12","sex":2,"age":29,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629775691"},"disease":[{"order_id":1354,"disease_id":"12565","disease_name":"骨质增生"}]},{"id":1353,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"王波","card_no":"341125199308041451","phone":"18155458947","diag_id":"21545315652253","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629775454","user_drug":{"id":374,"order_id":1353,"name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"合肥蜀山区南湖春城1802号","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629775454"},"disease":[{"order_id":1353,"disease_id":"12565","disease_name":"骨质增生"}]},{"id":1352,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"马一鸣","card_no":"110105198010215419","phone":"17721329876","diag_id":"21545315711446","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629774360","user_drug":{"id":373,"order_id":1352,"name":"马一鸣","card_no":"110105198010215419","phone":"17721329876","birthday":"1980-10-21","sex":1,"age":41,"address":"隆河新村3栋301","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629774360"},"disease":[{"order_id":1352,"disease_id":"12565","disease_name":"骨质增生"}]},{"id":1351,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"马一鸣","card_no":"110105198010215419","phone":"17721329876","diag_id":"21545315684262","prescription_url":"upload\/mf-backend-project\/prescription\/2021-08-30\/28cc98e372687671376ed46cab4a4bd1.png","status":5,"remark":"","created_at":"1629774098","user_drug":{"id":372,"order_id":1351,"name":"马一鸣","card_no":"110105198010215419","phone":"17721329876","birthday":"1980-10-21","sex":1,"age":41,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629774098"},"disease":[{"order_id":1351,"disease_id":"12565","disease_name":"骨质增生"}]},{"id":1345,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"许贵林","card_no":"340111199206123537","phone":"18155256235","diag_id":"21539308080089","prescription_url":"upload\/mf-backend-project\/prescription\/2021-08-23\/a368cabd9c726129fef7eb1ea274ec17.png","status":5,"remark":"","created_at":"1629268043","user_drug":{"id":366,"order_id":1345,"name":"许贵林","card_no":"340111199206123537","phone":"18155256235","birthday":"1992-06-12","sex":1,"age":29,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629268043"},"disease":[{"order_id":1345,"disease_id":"8987","disease_name":"感冒"}]},{"id":1340,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"王波","card_no":"341125199308041451","phone":"18155458947","diag_id":"21538307862410","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629200226","user_drug":{"id":361,"order_id":1340,"name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629200226"},"disease":[{"order_id":1340,"disease_id":"8987","disease_name":"感冒"}]},{"id":1339,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"王波","card_no":"341125199308041451","phone":"18155458947","diag_id":"21538304925388","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629200151","user_drug":{"id":360,"order_id":1339,"name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629200151"},"disease":[{"order_id":1339,"disease_id":"7877","disease_name":"高血压"}]},{"id":1338,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"王波","card_no":"341125199308041451","phone":"18155458947","diag_id":"21538303986713","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629198992","user_drug":{"id":359,"order_id":1338,"name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629198992"},"disease":[{"order_id":1338,"disease_id":"16080","disease_name":"鼻塞"}]}</t>
   </si>
   <si>
     <t>SELECT
@@ -382,12 +459,38 @@
 WHERE
  1 = 1 
  AND a.merchant_id = %(merchant_id)s
- AND a.status=%(status)s
  ORDER BY
  a.created_at DESC</t>
   </si>
   <si>
-    <t>{"id":1357,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"周宇","card_no":"34240119881231991X","phone":"15835547888","diag_id":"21553344682942","prescription_url":"upload\/mf-backend-project\/prescription\/2021-09-01\/95a94b1f9daa014daa04ef3413ae5c3d.png","status":4,"remark":"","created_at":"1630463783","user_drug":{"id":378,"order_id":1357,"name":"周宇","card_no":"34240119881231991X","phone":"15835547888","birthday":"1988-12-31","sex":1,"age":33,"address":"hsajijwhhyjjm","is_diagnosis":0,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1630463783"},"disease":[{"order_id":1357,"disease_id":"97648","disease_name":"中耳炎"}]},{"id":1355,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","diag_id":"21545315652261","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629776345","user_drug":{"id":376,"order_id":1355,"name":"马一鸣","card_no":"110105198010215419","phone":"13756213086","birthday":"1980-10-21","sex":1,"age":41,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629776345"},"disease":[{"order_id":1355,"disease_id":"12565","disease_name":"骨质增生"}]},{"id":1354,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"郑现桃","card_no":"342423199205120020","phone":"13723451234","diag_id":"21545315664659","prescription_url":"upload\/mf-backend-project\/prescription\/2021-08-24\/806e2ff931b4ebe2320d5b81d983addf.png","status":5,"remark":"","created_at":"1629775691","user_drug":{"id":375,"order_id":1354,"name":"郑现桃","card_no":"342423199205120020","phone":"13723451234","birthday":"1992-05-12","sex":2,"age":29,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629775691"},"disease":[{"order_id":1354,"disease_id":"12565","disease_name":"骨质增生"}]},{"id":1353,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"王波","card_no":"341125199308041451","phone":"18155458947","diag_id":"21545315652253","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629775454","user_drug":{"id":374,"order_id":1353,"name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"合肥蜀山区南湖春城1802号","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629775454"},"disease":[{"order_id":1353,"disease_id":"12565","disease_name":"骨质增生"}]},{"id":1352,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"马一鸣","card_no":"110105198010215419","phone":"17721329876","diag_id":"21545315711446","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629774360","user_drug":{"id":373,"order_id":1352,"name":"马一鸣","card_no":"110105198010215419","phone":"17721329876","birthday":"1980-10-21","sex":1,"age":41,"address":"隆河新村3栋301","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629774360"},"disease":[{"order_id":1352,"disease_id":"12565","disease_name":"骨质增生"}]},{"id":1351,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"马一鸣","card_no":"110105198010215419","phone":"17721329876","diag_id":"21545315684262","prescription_url":"upload\/mf-backend-project\/prescription\/2021-08-30\/28cc98e372687671376ed46cab4a4bd1.png","status":5,"remark":"","created_at":"1629774098","user_drug":{"id":372,"order_id":1351,"name":"马一鸣","card_no":"110105198010215419","phone":"17721329876","birthday":"1980-10-21","sex":1,"age":41,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629774098"},"disease":[{"order_id":1351,"disease_id":"12565","disease_name":"骨质增生"}]},{"id":1345,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"许贵林","card_no":"340111199206123537","phone":"18155256235","diag_id":"21539308080089","prescription_url":"upload\/mf-backend-project\/prescription\/2021-08-23\/a368cabd9c726129fef7eb1ea274ec17.png","status":5,"remark":"","created_at":"1629268043","user_drug":{"id":366,"order_id":1345,"name":"许贵林","card_no":"340111199206123537","phone":"18155256235","birthday":"1992-06-12","sex":1,"age":29,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629268043"},"disease":[{"order_id":1345,"disease_id":"8987","disease_name":"感冒"}]},{"id":1340,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"王波","card_no":"341125199308041451","phone":"18155458947","diag_id":"21538307862410","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629200226","user_drug":{"id":361,"order_id":1340,"name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629200226"},"disease":[{"order_id":1340,"disease_id":"8987","disease_name":"感冒"}]},{"id":1339,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"王波","card_no":"341125199308041451","phone":"18155458947","diag_id":"21538304925388","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629200151","user_drug":{"id":360,"order_id":1339,"name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629200151"},"disease":[{"order_id":1339,"disease_id":"7877","disease_name":"高血压"}]},{"id":1338,"shop_id":27,"shop_name":"安徽德胜大药房-双岗店","user_drugs_name":"王波","card_no":"341125199308041451","phone":"18155458947","diag_id":"21538303986713","prescription_url":"","status":3,"remark":"24小时未接诊，系统自动拒诊","created_at":"1629198992","user_drug":{"id":359,"order_id":1338,"name":"王波","card_no":"341125199308041451","phone":"18155458947","birthday":"1993-08-04","sex":1,"age":28,"address":"","is_diagnosis":1,"is_allergy":0,"is_taboo":1,"is_adverse":0,"created_at":"1629198992"},"disease":[{"order_id":1338,"disease_id":"16080","disease_name":"鼻塞"}]}</t>
+    <t>查询手机号为【18856009142】的数据</t>
+  </si>
+  <si>
+    <t>{"search":"18856009142","page":1,"limit":10}</t>
+  </si>
+  <si>
+    <t>查询存在的账号【安徽德胜大药房】</t>
+  </si>
+  <si>
+    <t>{"search":"安徽德胜大药房","page":1,"limit":10}</t>
+  </si>
+  <si>
+    <t>查询不存在的账号【安徽德胜大药房33】</t>
+  </si>
+  <si>
+    <t>{"search":"安徽德胜大药房33","page":1,"limit":10}</t>
+  </si>
+  <si>
+    <t>模糊查询账号【安徽】的数据</t>
+  </si>
+  <si>
+    <t>{"search":"安徽","page":1,"limit":10}</t>
+  </si>
+  <si>
+    <t>联合查询【正常】【安徽德胜大药房】</t>
+  </si>
+  <si>
+    <t>{"search":"安徽德胜大药房","status":1,"page":1,"limit":10}</t>
   </si>
 </sst>
 </file>
@@ -395,8 +498,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -439,6 +542,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -446,7 +563,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -459,22 +576,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -486,21 +589,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -535,8 +623,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -545,14 +642,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -573,6 +662,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -589,187 +692,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -816,8 +919,17 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -840,17 +952,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -903,10 +1006,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -915,16 +1018,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -936,10 +1039,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -948,100 +1057,94 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1049,17 +1152,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1449,9 +1552,9 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1471,64 +1574,64 @@
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:13">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" ht="409.5" spans="1:13">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H2" s="5" t="s">
@@ -1540,27 +1643,27 @@
       <c r="J2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="1"/>
+      <c r="K2" s="4"/>
       <c r="L2" s="10"/>
       <c r="M2" s="11"/>
     </row>
     <row r="3" ht="409.5" spans="1:10">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="4"/>
       <c r="G3" s="5" t="s">
         <v>24</v>
       </c>
@@ -1575,27 +1678,27 @@
       </c>
     </row>
     <row r="4" ht="409.5" spans="1:10">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="4"/>
       <c r="G4" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>20</v>
@@ -1605,27 +1708,27 @@
       </c>
     </row>
     <row r="5" ht="409.5" spans="1:10">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>29</v>
+      <c r="B5" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="4"/>
       <c r="G5" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>20</v>
@@ -1635,27 +1738,27 @@
       </c>
     </row>
     <row r="6" ht="409.5" spans="1:10">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>33</v>
+      <c r="B6" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="4"/>
       <c r="G6" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>20</v>
@@ -1665,27 +1768,27 @@
       </c>
     </row>
     <row r="7" ht="409.5" spans="1:10">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>37</v>
+      <c r="B7" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="4"/>
       <c r="G7" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>20</v>
@@ -1695,16 +1798,16 @@
       </c>
     </row>
     <row r="8" ht="409.5" spans="1:13">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>40</v>
+      <c r="B8" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="6" t="s">
@@ -1712,10 +1815,10 @@
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>20</v>
@@ -1724,20 +1827,20 @@
         <v>21</v>
       </c>
       <c r="K8" s="5"/>
-      <c r="L8" s="1"/>
+      <c r="L8" s="4"/>
       <c r="M8" s="14"/>
     </row>
     <row r="9" ht="409.5" spans="1:13">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>43</v>
+      <c r="B9" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="6" t="s">
@@ -1745,10 +1848,10 @@
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>20</v>
@@ -1757,20 +1860,20 @@
         <v>21</v>
       </c>
       <c r="K9" s="5"/>
-      <c r="L9" s="1"/>
+      <c r="L9" s="4"/>
       <c r="M9" s="14"/>
     </row>
     <row r="10" ht="409.5" spans="1:13">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>46</v>
+      <c r="B10" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="6" t="s">
@@ -1778,10 +1881,10 @@
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>20</v>
@@ -1794,16 +1897,16 @@
       <c r="M10" s="14"/>
     </row>
     <row r="11" ht="409.5" spans="1:13">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>49</v>
+      <c r="B11" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="6" t="s">
@@ -1811,10 +1914,10 @@
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>20</v>
@@ -1969,358 +2072,18 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" ht="409.5" spans="1:13">
-      <c r="A2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="11"/>
-    </row>
-    <row r="3" ht="409.5" spans="1:11">
-      <c r="A3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="12"/>
-    </row>
-    <row r="4" ht="60" spans="1:11">
-      <c r="A4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="12"/>
-    </row>
-    <row r="5" ht="60" spans="1:11">
-      <c r="A5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="12"/>
-    </row>
-    <row r="6" ht="48" spans="1:11">
-      <c r="A6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="12"/>
-    </row>
-    <row r="7" ht="60" spans="1:11">
-      <c r="A7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="12"/>
-    </row>
-    <row r="8" ht="72" spans="1:13">
-      <c r="A8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="14"/>
-    </row>
-    <row r="9" ht="72" spans="1:13">
-      <c r="A9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="14"/>
-    </row>
-    <row r="10" ht="60" spans="1:13">
-      <c r="A10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-    </row>
-    <row r="11" ht="84" spans="1:13">
-      <c r="A11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
+    <row r="1" ht="409.5" spans="1:1">
+      <c r="A1" s="4" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2331,18 +2094,388 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="7.875" customWidth="1"/>
+    <col min="2" max="2" width="9.25" customWidth="1"/>
+    <col min="3" max="3" width="33.125" customWidth="1"/>
+    <col min="4" max="4" width="30.375" customWidth="1"/>
+    <col min="5" max="6" width="7.375" customWidth="1"/>
+    <col min="7" max="7" width="49.625" customWidth="1"/>
+    <col min="8" max="8" width="8.875" customWidth="1"/>
+    <col min="9" max="9" width="5.375" customWidth="1"/>
+    <col min="10" max="10" width="12.625" customWidth="1"/>
+    <col min="11" max="11" width="4.375" customWidth="1"/>
+    <col min="12" max="12" width="7.375" customWidth="1"/>
+    <col min="13" max="13" width="9.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="409.5" spans="1:1">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" ht="408" spans="1:13">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="11"/>
+    </row>
+    <row r="3" ht="409.5" spans="1:11">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="12"/>
+    </row>
+    <row r="4" ht="409.5" spans="1:11">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="12"/>
+    </row>
+    <row r="5" ht="409.5" spans="1:11">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="12"/>
+    </row>
+    <row r="6" ht="409.5" spans="1:11">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="12"/>
+    </row>
+    <row r="7" ht="409.5" spans="1:11">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="12"/>
+    </row>
+    <row r="8" ht="409.5" spans="1:13">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="14"/>
+    </row>
+    <row r="9" ht="409.5" spans="1:13">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="14"/>
+    </row>
+    <row r="10" ht="409.5" spans="1:13">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+    </row>
+    <row r="11" ht="409.5" spans="1:13">
+      <c r="A11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="5"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
